--- a/Assignment Schedule.xlsx
+++ b/Assignment Schedule.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinks/Desktop/lecture/Fast Campus/github/assignment_upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Najy\Desktop\ML study\0722 CH4 TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48BCF1A-0D5D-0847-9388-01A373DD15C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{E5B01FF7-F3D5-E04C-AE92-DA15174234FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="109">
   <si>
     <t>Lecture</t>
   </si>
@@ -216,17 +215,186 @@
   </si>
   <si>
     <t>Assignment Schedule</t>
+  </si>
+  <si>
+    <t>Single-variate Linear Regression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 4_01_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 4_01_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 4_01_03</t>
+  </si>
+  <si>
+    <t>CH 4_01_04</t>
+  </si>
+  <si>
+    <t>CH 4_01_05</t>
+  </si>
+  <si>
+    <t>CH 4_01_06</t>
+  </si>
+  <si>
+    <t>CH 4_01_07</t>
+  </si>
+  <si>
+    <t>CH 4_01_08</t>
+  </si>
+  <si>
+    <t>CH 4_01_09</t>
+  </si>
+  <si>
+    <t>CH 4_01_10</t>
+  </si>
+  <si>
+    <t>CH 4_01_11</t>
+  </si>
+  <si>
+    <t>CH 4_01_12</t>
+  </si>
+  <si>
+    <t>CH 4_01_13</t>
+  </si>
+  <si>
+    <t>CH 4_02_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 4_03_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 4_04_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 4_04_02</t>
+  </si>
+  <si>
+    <t>CH 4_05_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 4_05_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 4_06_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 4_06_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 4_06_03</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-variate Linear Regression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 5_01_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 5_01_02</t>
+  </si>
+  <si>
+    <t>CH 5_01_03</t>
+  </si>
+  <si>
+    <t>CH 5_01_04</t>
+  </si>
+  <si>
+    <t>CH 5_01_05</t>
+  </si>
+  <si>
+    <t>CH 5_02_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 5_03_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 5_03_02</t>
+  </si>
+  <si>
+    <t>CH 5_03_03</t>
+  </si>
+  <si>
+    <t>CH 5_03_04</t>
+  </si>
+  <si>
+    <t>CH 5_03_05</t>
+  </si>
+  <si>
+    <t>CH 5_03_06</t>
+  </si>
+  <si>
+    <t>CH 5_04_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 5_05_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 5_05_02</t>
+  </si>
+  <si>
+    <t>CH 5_06_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q5-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q4-1, Q4-2, Q4-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q4-4, Q4-5, Q4-6, Q4-7, Q4-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q4-9, Q4-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q4-11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q5-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q5-2, Q5-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -234,8 +402,15 @@
       <b/>
       <sz val="30"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -269,7 +444,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -298,14 +473,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64D601F9-A2DA-C642-8CA5-811B295B76DB}" name="Table1" displayName="Table1" ref="B3:F39" totalsRowShown="0">
-  <autoFilter ref="B3:F39" xr:uid="{0CDDDAC5-C4F7-4E4E-86A5-E6EF2A355632}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F77" totalsRowShown="0">
+  <autoFilter ref="B3:F77"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2F1B4218-AA12-5443-AB83-E761B22A5633}" name="Chapter" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{89DA5E3A-780F-A348-AA32-2FD4FF322156}" name=" "/>
-    <tableColumn id="3" xr3:uid="{7BD33BEB-5B12-BA4D-9120-16059559C628}" name="Lecture" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{96A0E9C2-CD3C-E34C-843C-A46800185248}" name="TA" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{854B1E95-5D4A-A24A-A0A0-959A490766CA}" name="PA" dataDxfId="0"/>
+    <tableColumn id="1" name="Chapter" dataDxfId="3"/>
+    <tableColumn id="2" name=" "/>
+    <tableColumn id="3" name="Lecture" dataDxfId="2"/>
+    <tableColumn id="5" name="TA" dataDxfId="1"/>
+    <tableColumn id="6" name="PA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -607,23 +782,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9FA906-B003-F840-B0D1-E5E786B404B0}">
-  <dimension ref="B2:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="29.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="35.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="1"/>
+    <col min="3" max="3" width="29.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="35.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="2" t="s">
         <v>60</v>
       </c>
@@ -632,7 +807,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -649,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -666,7 +841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
@@ -677,7 +852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
@@ -688,7 +863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -699,7 +874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
@@ -710,7 +885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
@@ -721,7 +896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
@@ -732,7 +907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
@@ -743,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
@@ -754,7 +929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
@@ -765,7 +940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
@@ -776,7 +951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -793,7 +968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
@@ -804,7 +979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
@@ -815,7 +990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
@@ -826,7 +1001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <v>3</v>
       </c>
@@ -843,7 +1018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
         <v>29</v>
       </c>
@@ -854,7 +1029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
@@ -865,7 +1040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
@@ -876,7 +1051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
@@ -887,7 +1062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D24" s="1" t="s">
         <v>33</v>
       </c>
@@ -898,7 +1073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
@@ -909,7 +1084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D26" s="1" t="s">
         <v>35</v>
       </c>
@@ -920,7 +1095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D27" s="1" t="s">
         <v>38</v>
       </c>
@@ -931,7 +1106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D28" s="1" t="s">
         <v>39</v>
       </c>
@@ -942,7 +1117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D29" s="1" t="s">
         <v>40</v>
       </c>
@@ -953,7 +1128,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D30" s="1" t="s">
         <v>41</v>
       </c>
@@ -964,7 +1139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D31" s="1" t="s">
         <v>42</v>
       </c>
@@ -975,7 +1150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D32" s="1" t="s">
         <v>43</v>
       </c>
@@ -986,7 +1161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
         <v>44</v>
       </c>
@@ -997,7 +1172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D34" s="1" t="s">
         <v>45</v>
       </c>
@@ -1008,7 +1183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D35" s="1" t="s">
         <v>46</v>
       </c>
@@ -1019,7 +1194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D36" s="1" t="s">
         <v>47</v>
       </c>
@@ -1030,7 +1205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D37" s="1" t="s">
         <v>48</v>
       </c>
@@ -1041,7 +1216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D38" s="1" t="s">
         <v>49</v>
       </c>
@@ -1052,7 +1227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D39" s="1" t="s">
         <v>50</v>
       </c>
@@ -1061,15 +1236,432 @@
       </c>
       <c r="F39" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B62" s="1">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D73" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assignment Schedule.xlsx
+++ b/Assignment Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Najy\Desktop\ML study\0722 CH4 TA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\The-Principles-of-Deep-Learning1-Artificial-Neurons\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36FE49E-78EB-44A0-8FE3-87F93BE07302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="113">
   <si>
     <t>Lecture</t>
   </si>
@@ -383,13 +376,29 @@
   </si>
   <si>
     <t>Q5-2, Q5-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q5-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q5-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q5-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q5-6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -473,14 +482,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F77" totalsRowShown="0">
-  <autoFilter ref="B3:F77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:F77" totalsRowShown="0">
+  <autoFilter ref="B3:F77" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Chapter" dataDxfId="3"/>
-    <tableColumn id="2" name=" "/>
-    <tableColumn id="3" name="Lecture" dataDxfId="2"/>
-    <tableColumn id="5" name="TA" dataDxfId="1"/>
-    <tableColumn id="6" name="PA" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Chapter" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=" "/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Lecture" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TA" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -782,23 +791,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1"/>
-    <col min="3" max="3" width="29.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="35.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.4609375" customWidth="1"/>
+    <col min="2" max="2" width="10.84375" style="1"/>
+    <col min="3" max="3" width="29.84375" customWidth="1"/>
+    <col min="4" max="4" width="13.3828125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="35.15234375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="2" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="B2" s="2" t="s">
         <v>60</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>107</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.45">
@@ -1510,7 +1519,7 @@
         <v>108</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.45">
@@ -1521,7 +1530,7 @@
         <v>84</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.45">
@@ -1551,7 +1560,7 @@
         <v>84</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.45">
@@ -1595,7 +1604,7 @@
         <v>84</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.45">
@@ -1639,7 +1648,7 @@
         <v>84</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.45">

--- a/Assignment Schedule.xlsx
+++ b/Assignment Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\The-Principles-of-Deep-Learning1-Artificial-Neurons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36FE49E-78EB-44A0-8FE3-87F93BE07302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC73F78-070D-41EF-8128-785D5C4DF0FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="119">
   <si>
     <t>Lecture</t>
   </si>
@@ -392,6 +392,30 @@
   </si>
   <si>
     <t>Q5-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polynomial Regression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 6_01_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 6_02_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 6_03_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 6_04_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q6-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,6 +475,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -482,8 +510,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:F77" totalsRowShown="0">
-  <autoFilter ref="B3:F77" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:F83" totalsRowShown="0">
+  <autoFilter ref="B3:F83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Chapter" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=" "/>
@@ -792,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F77"/>
+  <dimension ref="B2:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -1522,7 +1550,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D65" s="1" t="s">
         <v>89</v>
       </c>
@@ -1533,7 +1561,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D66" s="1" t="s">
         <v>90</v>
       </c>
@@ -1541,7 +1569,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D67" s="1" t="s">
         <v>91</v>
       </c>
@@ -1552,7 +1580,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D68" s="1" t="s">
         <v>92</v>
       </c>
@@ -1563,7 +1591,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D69" s="1" t="s">
         <v>93</v>
       </c>
@@ -1574,7 +1602,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D70" s="1" t="s">
         <v>94</v>
       </c>
@@ -1585,7 +1613,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D71" s="1" t="s">
         <v>95</v>
       </c>
@@ -1596,7 +1624,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D72" s="1" t="s">
         <v>96</v>
       </c>
@@ -1607,7 +1635,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D73" s="1" t="s">
         <v>97</v>
       </c>
@@ -1618,7 +1646,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D74" s="1" t="s">
         <v>98</v>
       </c>
@@ -1629,7 +1657,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D75" s="1" t="s">
         <v>99</v>
       </c>
@@ -1640,7 +1668,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D76" s="1" t="s">
         <v>100</v>
       </c>
@@ -1651,7 +1679,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
@@ -1661,6 +1689,55 @@
       <c r="F77" s="1" t="s">
         <v>84</v>
       </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B78" s="1">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D79" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D80" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D81" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assignment Schedule.xlsx
+++ b/Assignment Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\The-Principles-of-Deep-Learning1-Artificial-Neurons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\najy9\OneDrive\문서\GitHub\as\The-Principles-of-Deep-Learning1-Artificial-Neurons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC73F78-070D-41EF-8128-785D5C4DF0FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41FA2A6-F425-4D35-9574-01A197C90DBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="131">
   <si>
     <t>Lecture</t>
   </si>
@@ -416,6 +416,47 @@
   </si>
   <si>
     <t>Q6-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduction to Logistic Regression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 7_01_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 7_01_02</t>
+  </si>
+  <si>
+    <t>CH 7_01_03</t>
+  </si>
+  <si>
+    <t>CH 7_01_04</t>
+  </si>
+  <si>
+    <t>CH 7_01_05</t>
+  </si>
+  <si>
+    <t>CH 7_01_06</t>
+  </si>
+  <si>
+    <t>CH 7_01_07</t>
+  </si>
+  <si>
+    <t>CH 7_02_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 7_02_02</t>
+  </si>
+  <si>
+    <t>Q7-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q7-2, Q7-3, Q7-4, Q7-5, Q7-6, Q7-7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -472,13 +513,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -510,8 +551,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:F83" totalsRowShown="0">
-  <autoFilter ref="B3:F83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:F90" totalsRowShown="0">
+  <autoFilter ref="B3:F90" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Chapter" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=" "/>
@@ -820,29 +861,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F83"/>
+  <dimension ref="B2:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.4609375" customWidth="1"/>
-    <col min="2" max="2" width="10.84375" style="1"/>
-    <col min="3" max="3" width="29.84375" customWidth="1"/>
-    <col min="4" max="4" width="13.3828125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="35.15234375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="1"/>
+    <col min="3" max="3" width="29.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="35.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
@@ -1700,6 +1741,9 @@
       <c r="D78" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="E78" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="F78" s="1" t="s">
         <v>84</v>
       </c>
@@ -1708,11 +1752,23 @@
       <c r="D79" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="E79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D80" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D81" s="1" t="s">
@@ -1726,18 +1782,109 @@
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B82" s="3"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="B82" s="2">
+        <v>7</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B83" s="3"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D86" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assignment Schedule.xlsx
+++ b/Assignment Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\najy9\OneDrive\문서\GitHub\as\The-Principles-of-Deep-Learning1-Artificial-Neurons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\The-Principles-of-Deep-Learning1-Artificial-Neurons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41FA2A6-F425-4D35-9574-01A197C90DBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC2AFF6-C633-49D8-A225-3ED0EDCCA093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="133">
   <si>
     <t>Lecture</t>
   </si>
@@ -457,6 +457,14 @@
   </si>
   <si>
     <t>Q7-2, Q7-3, Q7-4, Q7-5, Q7-6, Q7-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q7-2, Q7-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q7-4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -863,20 +871,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1"/>
-    <col min="3" max="3" width="29.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="35.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.4609375" customWidth="1"/>
+    <col min="2" max="2" width="10.84375" style="1"/>
+    <col min="3" max="3" width="29.84375" customWidth="1"/>
+    <col min="4" max="4" width="13.3828125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="35.15234375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="2" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
@@ -1794,7 +1802,9 @@
       <c r="E82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B83" s="2"/>
@@ -1806,7 +1816,7 @@
         <v>129</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.45">
@@ -1872,7 +1882,7 @@
         <v>130</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.45">

--- a/Assignment Schedule.xlsx
+++ b/Assignment Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\The-Principles-of-Deep-Learning1-Artificial-Neurons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\najy9\문서\GitHub\The-Principles-of-Deep-Learning1-Artificial-Neurons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC2AFF6-C633-49D8-A225-3ED0EDCCA093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1EF130-8129-4C06-81AC-276F68995FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="145">
   <si>
     <t>Lecture</t>
   </si>
@@ -465,6 +465,52 @@
   </si>
   <si>
     <t>Q7-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maths for Logistic Regression</t>
+  </si>
+  <si>
+    <t>CH 8_01_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 8_01_02</t>
+  </si>
+  <si>
+    <t>CH 8_02_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 8_02_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 8_03_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 8_03_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 8_03_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 8_03_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 8_04_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q8-1, Q8-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q8-3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -559,8 +605,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:F90" totalsRowShown="0">
-  <autoFilter ref="B3:F90" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:F99" totalsRowShown="0">
+  <autoFilter ref="B3:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Chapter" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=" "/>
@@ -869,22 +915,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F90"/>
+  <dimension ref="B2:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.4609375" customWidth="1"/>
-    <col min="2" max="2" width="10.84375" style="1"/>
-    <col min="3" max="3" width="29.84375" customWidth="1"/>
-    <col min="4" max="4" width="13.3828125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="35.15234375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="1"/>
+    <col min="3" max="3" width="29.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="35.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="31" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="2" spans="2:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
@@ -1894,6 +1940,63 @@
       </c>
       <c r="F90" s="1" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B91" s="1">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D92" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D94" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D95" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D96" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D97" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D98" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D99" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment Schedule.xlsx
+++ b/Assignment Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\najy9\문서\GitHub\The-Principles-of-Deep-Learning1-Artificial-Neurons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1EF130-8129-4C06-81AC-276F68995FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934C2878-CD24-44C8-ACA7-39270CADD320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="166">
   <si>
     <t>Lecture</t>
   </si>
@@ -511,6 +511,90 @@
   </si>
   <si>
     <t>Q8-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single-variate Logistic Regression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_01_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_01_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_01_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_01_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_01_05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_01_06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_01_07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_01_08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_02_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_03_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_03_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_03_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_04_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_04_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_05_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_06_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 9_07_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q9-1, Q9-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q9-3, Q9-4, Q9-5, Q9-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q9-7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -605,8 +689,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:F99" totalsRowShown="0">
-  <autoFilter ref="B3:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:F116" totalsRowShown="0">
+  <autoFilter ref="B3:F116" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Chapter" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=" "/>
@@ -915,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F99"/>
+  <dimension ref="B2:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1955,11 +2039,20 @@
       <c r="E91" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="F91" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D92" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="E92" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D93" s="1" t="s">
@@ -1968,35 +2061,267 @@
       <c r="E93" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="F93" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D94" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="E94" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D95" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E95" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D96" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="E96" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D97" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="E97" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D98" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="E98" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D99" s="1" t="s">
         <v>142</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B100" s="1">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D101" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D102" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D103" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D104" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D105" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D106" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D107" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D108" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D109" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D110" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D111" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D112" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D113" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D114" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D115" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D116" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment Schedule.xlsx
+++ b/Assignment Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\najy9\문서\GitHub\The-Principles-of-Deep-Learning1-Artificial-Neurons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934C2878-CD24-44C8-ACA7-39270CADD320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAF3876-716A-4BCD-8486-F09B3C6D3B92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="182">
   <si>
     <t>Lecture</t>
   </si>
@@ -595,6 +595,70 @@
   </si>
   <si>
     <t>Q9-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 10_01_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 10_01_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 10_01_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 10_01_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 10_02_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 10_03_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 10_03_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 10_04_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 10_05_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 10_06_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 10_07_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH 10_04_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-variate Logistic Regression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q10-1, Q10-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q10-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q10-4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +666,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -625,6 +689,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -646,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,6 +730,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -689,8 +762,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:F116" totalsRowShown="0">
-  <autoFilter ref="B3:F116" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:F128" totalsRowShown="0">
+  <autoFilter ref="B3:F128" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Chapter" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=" "/>
@@ -999,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F116"/>
+  <dimension ref="B2:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -2280,7 +2353,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D113" s="1" t="s">
         <v>159</v>
       </c>
@@ -2291,7 +2364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D114" s="1" t="s">
         <v>160</v>
       </c>
@@ -2302,7 +2375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D115" s="1" t="s">
         <v>161</v>
       </c>
@@ -2313,7 +2386,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D116" s="1" t="s">
         <v>162</v>
       </c>
@@ -2321,6 +2394,144 @@
         <v>84</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B117" s="1">
+        <v>10</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D118" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D119" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D120" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D121" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D122" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D123" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D124" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D125" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D126" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D127" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D128" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Assignment Schedule.xlsx
+++ b/Assignment Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\najy9\문서\GitHub\The-Principles-of-Deep-Learning1-Artificial-Neurons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAF3876-716A-4BCD-8486-F09B3C6D3B92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E722B49-3B4E-4528-91F3-BEB7C827B317}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="181">
   <si>
     <t>Lecture</t>
   </si>
@@ -590,14 +590,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Q9-3, Q9-4, Q9-5, Q9-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q9-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CH 10_01_01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -659,6 +651,10 @@
   </si>
   <si>
     <t>Q10-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q9-3, Q9-4, Q9-5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -727,10 +723,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1074,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1088,13 +1084,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
@@ -2226,7 +2222,7 @@
         <v>147</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>84</v>
@@ -2237,7 +2233,7 @@
         <v>148</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>84</v>
@@ -2401,14 +2397,14 @@
       <c r="B117" s="1">
         <v>10</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>178</v>
+      <c r="C117" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>84</v>
@@ -2416,7 +2412,7 @@
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D118" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>84</v>
@@ -2427,7 +2423,7 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D119" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>84</v>
@@ -2438,7 +2434,7 @@
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D120" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>84</v>
@@ -2449,10 +2445,10 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D121" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>84</v>
@@ -2460,7 +2456,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D122" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>84</v>
@@ -2471,7 +2467,7 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D123" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>84</v>
@@ -2482,7 +2478,7 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D124" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>84</v>
@@ -2493,7 +2489,7 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D125" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>84</v>
@@ -2504,10 +2500,10 @@
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D126" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>84</v>
@@ -2515,7 +2511,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D127" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>84</v>
@@ -2526,7 +2522,7 @@
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D128" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>84</v>
